--- a/Data/RemapDrafts/GanyuRemapDraft.xlsx
+++ b/Data/RemapDrafts/GanyuRemapDraft.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Computer\Games\Genshin\Repos\Repos\Fix-Raiden-Boss-Fork\Data\RemapDrafts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Computer\Games\Genshin\Repos\Repos\Fix-Raiden-Boss\Data\RemapDrafts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F59A31F-84AD-4E10-9BB7-8EDAB2337CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B0DA7D-67DD-47EC-9269-178703E8CC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="15720" activeTab="1" xr2:uid="{69836935-E27C-4492-94AC-8902D071434B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ganyu to GanyuTwilight" sheetId="1" r:id="rId1"/>
-    <sheet name="GanyuTwilight to Ganyu" sheetId="2" r:id="rId2"/>
+    <sheet name="V4.4 - Ganyu to GanyuTwilight" sheetId="1" r:id="rId1"/>
+    <sheet name="V4.4 - GanyuTwilight to Ganyu" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Ganyu to GanyuTwilight'!$A$1:$D$94</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'GanyuTwilight to Ganyu'!$A$1:$D$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'V4.4 - Ganyu to GanyuTwilight'!$A$1:$D$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'V4.4 - GanyuTwilight to Ganyu'!$A$1:$D$95</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1451,7 +1451,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2239,11 +2239,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D95" xr:uid="{3AB36D2F-4F42-4DD1-ABCB-AE25BB710B9F}"/>
+  <conditionalFormatting sqref="B2:B95">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F2:F94">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B95">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
